--- a/FUENTE DE DATOS.xlsx
+++ b/FUENTE DE DATOS.xlsx
@@ -240,7 +240,7 @@
     </r>
   </si>
   <si>
-    <t>Densidad de población</t>
+    <t>Densidad de población (Tabla externa)</t>
   </si>
   <si>
     <r>
@@ -267,7 +267,7 @@
     </r>
   </si>
   <si>
-    <t>Tasa de paro</t>
+    <t>Tasa de paro (Tabla externa)</t>
   </si>
   <si>
     <t>DATOS INFRAESTRUCTURA</t>
